--- a/data/quadrant/quadrant2_SP_MAJORITY.xlsx
+++ b/data/quadrant/quadrant2_SP_MAJORITY.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.149401864160658</v>
+        <v>-0.1494018706176246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08012135594289689</v>
+        <v>0.08011851523985433</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1695297870369927</v>
+        <v>0.1695284502031567</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1445518550865883</v>
+        <v>-0.1445518661859773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0877831111850636</v>
+        <v>0.08777906019056371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1691186371110625</v>
+        <v>0.1691165439150981</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1450510978767505</v>
+        <v>-0.1450511092862062</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08517141114818592</v>
+        <v>0.08516797745526866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1682081754024577</v>
+        <v>0.1682064466332372</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1278195680766299</v>
+        <v>-0.1278195496592421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1089133568095615</v>
+        <v>0.1089139796830309</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1679284409348907</v>
+        <v>0.1679288308941831</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1526684269292312</v>
+        <v>-0.1526684319033696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06979194038165214</v>
+        <v>0.06978986283866373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1678647179227431</v>
+        <v>0.1678638586917187</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1445680509701681</v>
+        <v>-0.1445680576025416</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0852716706598789</v>
+        <v>0.08526812464814715</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1678427215533637</v>
+        <v>0.1678409257600296</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.154779022351908</v>
+        <v>-0.1547790253568517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06466482516016352</v>
+        <v>0.06466378944902483</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1677441068210951</v>
+        <v>0.1677437103331292</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1539185785291009</v>
+        <v>-0.1539185833382765</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06563996903239008</v>
+        <v>0.06563846077914783</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1673306139084899</v>
+        <v>0.1673300266847457</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1527534201483621</v>
+        <v>-0.1527534248551253</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06710390688813023</v>
+        <v>0.06710182422299094</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1668428652555239</v>
+        <v>0.1668420319314758</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1495693936148939</v>
+        <v>-0.1495693981014481</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06933232109517706</v>
+        <v>0.06932919817466904</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1648574361524884</v>
+        <v>0.1648561268742294</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1318774986133503</v>
+        <v>-0.1318775087272175</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09877701256170361</v>
+        <v>0.0987694226380097</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1647682398131665</v>
+        <v>0.1647636979323513</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1451028688735426</v>
+        <v>-0.1451028708844656</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0773048785094083</v>
+        <v>0.0773008885686936</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1644107259174014</v>
+        <v>0.1644088516851312</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1459149650163324</v>
+        <v>-0.1459149721412367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07540488680084111</v>
+        <v>0.0754035162850515</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1642469907461478</v>
+        <v>0.1642463678841267</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1332183656805442</v>
+        <v>-0.1332183781687874</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09566349258041761</v>
+        <v>0.09565579518090188</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1640080387276149</v>
+        <v>0.1640035592101974</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1346087673145072</v>
+        <v>-0.1346087651502491</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09184731175562327</v>
+        <v>0.09184133771369209</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1629584269519861</v>
+        <v>0.1629550581243655</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1468464759708191</v>
+        <v>-0.1468464743510454</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07010036620874115</v>
+        <v>0.070099448902346</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1627204622893137</v>
+        <v>0.1627200656518576</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.155117432672016</v>
+        <v>-0.1551174332656457</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03757774944484538</v>
+        <v>0.03757912327493512</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1596042141426629</v>
+        <v>0.1596045381843349</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1277845750664071</v>
+        <v>-0.1277845670093272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0923630146444757</v>
+        <v>0.09235535124098787</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1576699847755364</v>
+        <v>0.1576654891490445</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1447333548685727</v>
+        <v>-0.1447333563314371</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03705899501032371</v>
+        <v>0.03706167122585125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1494025204696607</v>
+        <v>0.1494031857391797</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1323091420060581</v>
+        <v>-0.1323091479014361</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06023021023191492</v>
+        <v>0.06022477476863206</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1453732688046875</v>
+        <v>0.1453710222648811</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.123503361873125</v>
+        <v>-0.123503372477038</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07640333786142746</v>
+        <v>0.07639725570105199</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1452258600605673</v>
+        <v>0.145222669345574</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1302786548358989</v>
+        <v>-0.1302786694181415</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06278538557867056</v>
+        <v>0.06278359314272045</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1446185760824439</v>
+        <v>0.1446178110513088</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.131409745725333</v>
+        <v>-0.1314097486638645</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05630949061062878</v>
+        <v>0.05630648460805238</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1429660099618968</v>
+        <v>0.1429648287265678</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1402531933566474</v>
+        <v>-0.1402531944506208</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008973674485965848</v>
+        <v>0.008985298819619878</v>
       </c>
       <c r="D25" t="n">
-        <v>0.140539976805595</v>
+        <v>0.1405407206060988</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1390733474001668</v>
+        <v>-0.1390733470691086</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009613886425300141</v>
+        <v>0.009625787248419554</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1394052465629829</v>
+        <v>0.1394060674617736</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1390733467747329</v>
+        <v>-0.1390733464436733</v>
       </c>
       <c r="C27" t="n">
-        <v>0.009613882495218886</v>
+        <v>0.009625783322572967</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1394052456680056</v>
+        <v>0.1394060665667571</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.06761998173687639</v>
+        <v>-0.06761994617936205</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1089662264439599</v>
+        <v>0.1089698085163819</v>
       </c>
       <c r="D28" t="n">
-        <v>0.128242350397721</v>
+        <v>0.1282453753138754</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.06761998173687639</v>
+        <v>-0.06761994617936205</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1089662264439599</v>
+        <v>0.1089698085163819</v>
       </c>
       <c r="D29" t="n">
-        <v>0.128242350397721</v>
+        <v>0.1282453753138754</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.06516967191803866</v>
+        <v>-0.0651696350527823</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1082038029963544</v>
+        <v>0.1082074923257114</v>
       </c>
       <c r="D30" t="n">
-        <v>0.126313693322532</v>
+        <v>0.1263168346988307</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.1083406994540448</v>
+        <v>-0.1083407166467329</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05357567948852129</v>
+        <v>0.05357219981223889</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1208638100956958</v>
+        <v>0.1208622831004367</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.05007782804496224</v>
+        <v>-0.05007779180272485</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1060147067754819</v>
+        <v>0.1060183901105323</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117247204292436</v>
+        <v>0.117250519288684</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1048883757688317</v>
+        <v>-0.1048883690430438</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04553502053247419</v>
+        <v>0.04553325479724221</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1143460076535971</v>
+        <v>0.1143452983420846</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.04512126287692513</v>
+        <v>-0.04512122468812662</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09560066321542809</v>
+        <v>0.09560436852493059</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1057138362317738</v>
+        <v>0.1057171707832136</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.08798263217303452</v>
+        <v>-0.08798264067566972</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04918299282104657</v>
+        <v>0.04918078815188164</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1007963806241603</v>
+        <v>0.1007953123091757</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,13 +1331,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.09521498846692784</v>
+        <v>-0.09521500347584623</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0152021238228139</v>
+        <v>0.01520027308223379</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09642094480703541</v>
+        <v>0.09642066785020674</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02807783375236837</v>
+        <v>-0.02807784833501982</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08634234709344625</v>
+        <v>0.08635361087250577</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0907929823820695</v>
+        <v>0.09080369859121666</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.02333789722897364</v>
+        <v>-0.02333791020491236</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08575898955386681</v>
+        <v>0.08576980212026858</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08887779101873748</v>
+        <v>0.08888822761469924</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.02831429656064929</v>
+        <v>-0.02831430923142451</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08410882736136001</v>
+        <v>0.08412064442890209</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08874679842015405</v>
+        <v>0.08875800204143008</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.03656878799623858</v>
+        <v>-0.03656876087162617</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0792139681696712</v>
+        <v>0.07921676623310883</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08724751577380026</v>
+        <v>0.08725004483733627</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1457,13 +1457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.03123044139442605</v>
+        <v>-0.03123045741486817</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08004114000023858</v>
+        <v>0.08005250430257214</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08591812708752719</v>
+        <v>0.08592871996867651</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.03397312804290543</v>
+        <v>-0.03397314444069153</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07867403037659539</v>
+        <v>0.07868558058215282</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08569583703259512</v>
+        <v>0.08570644745139396</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1509,13 +1509,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.02599900312055733</v>
+        <v>-0.02599900754235387</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08121934184283171</v>
+        <v>0.08120653827624509</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08527912788394065</v>
+        <v>0.08526693527973568</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.06595618188888777</v>
+        <v>-0.06595618628189026</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05321642390338494</v>
+        <v>0.05321200111698952</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08474789497341399</v>
+        <v>0.08474512122668716</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1561,13 +1561,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.03333543166183244</v>
+        <v>-0.03333544752990147</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07640250953469248</v>
+        <v>0.07641472271877843</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08335822975135375</v>
+        <v>0.08336943030995597</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.0278371354664746</v>
+        <v>-0.02783714324150349</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07695688499962222</v>
+        <v>0.07696919243141759</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08183683925851448</v>
+        <v>0.08184841554601148</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.02092523073425735</v>
+        <v>-0.02092523090798983</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07876138149374161</v>
+        <v>0.07874880338186244</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08149368378030662</v>
+        <v>0.08148152749321727</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.02644909078486023</v>
+        <v>-0.0264490955274056</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07617493214588769</v>
+        <v>0.07616230500214345</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08063606321476993</v>
+        <v>0.08062413632069092</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1665,13 +1665,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.03079621867206417</v>
+        <v>-0.03079622636202616</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07450936253070879</v>
+        <v>0.07449718039405846</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08062290114620153</v>
+        <v>0.08061164583858862</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.02293402837757476</v>
+        <v>-0.02293403214247278</v>
       </c>
       <c r="C50" t="n">
-        <v>0.07615196109593088</v>
+        <v>0.07614001318305039</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0795304396843094</v>
+        <v>0.07951900048307362</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1717,13 +1717,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.02772840320208785</v>
+        <v>-0.02772841509289103</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07421108055146348</v>
+        <v>0.07422386307768507</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07922214854921165</v>
+        <v>0.07923412682511626</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.03143028214647703</v>
+        <v>-0.03143029093484106</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06984878456251946</v>
+        <v>0.06983637140067765</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07659448635945285</v>
+        <v>0.07658317020509231</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1769,13 +1769,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.06273523130797706</v>
+        <v>-0.06273522223260534</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03532236229285161</v>
+        <v>0.0353271818063108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07199568407351131</v>
+        <v>0.07199804082716778</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.02290318739875823</v>
+        <v>-0.02290318957562245</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06166887557460918</v>
+        <v>0.06165683584726079</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06578454383560979</v>
+        <v>0.06577325823944687</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1821,13 +1821,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.02278139084056041</v>
+        <v>-0.02278139284450778</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06071025134761203</v>
+        <v>0.06069750738233463</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06484386160093027</v>
+        <v>0.06483193088567051</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1847,13 +1847,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.01914657103573723</v>
+        <v>-0.01914657293779147</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06194503819977538</v>
+        <v>0.06193769022176027</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06483655558400803</v>
+        <v>0.06482953590200154</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.0555311663755866</v>
+        <v>-0.05553115194725442</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02740564619630614</v>
+        <v>0.02741248889085292</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06192559957295681</v>
+        <v>0.06192861522575968</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1899,13 +1899,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.05353547176892771</v>
+        <v>-0.05353548610088446</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02387658799307341</v>
+        <v>0.02387349688094076</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05861858230725674</v>
+        <v>0.05861733638935056</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1925,13 +1925,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.02497452428554768</v>
+        <v>-0.02497446188900945</v>
       </c>
       <c r="C59" t="n">
-        <v>0.05277203929856323</v>
+        <v>0.05276889490398742</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0583833451852368</v>
+        <v>0.05838047632585448</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.009634401814074975</v>
+        <v>-0.00963443748182264</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05726614797117344</v>
+        <v>0.05727794325979691</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05807093422506119</v>
+        <v>0.05808257199594095</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.02548454445983744</v>
+        <v>-0.02548448147682133</v>
       </c>
       <c r="C61" t="n">
-        <v>0.05151655198090414</v>
+        <v>0.05151357402881101</v>
       </c>
       <c r="D61" t="n">
-        <v>0.05747536110653528</v>
+        <v>0.05747266398353431</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2003,13 +2003,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.02570539012772058</v>
+        <v>-0.02570532605400266</v>
       </c>
       <c r="C62" t="n">
-        <v>0.05003351950610868</v>
+        <v>0.05003055125830005</v>
       </c>
       <c r="D62" t="n">
-        <v>0.05625051249354509</v>
+        <v>0.05624784304088449</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2029,13 +2029,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.02370052892602383</v>
+        <v>-0.02370046230321351</v>
       </c>
       <c r="C63" t="n">
-        <v>0.04881951557461833</v>
+        <v>0.04881634244594</v>
       </c>
       <c r="D63" t="n">
-        <v>0.05426840860310623</v>
+        <v>0.05426552499686452</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.02665820464227937</v>
+        <v>-0.02665813877374199</v>
       </c>
       <c r="C64" t="n">
-        <v>0.04690822768110294</v>
+        <v>0.04690586381639447</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05395407027214756</v>
+        <v>0.05395198257008013</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.02341965165251454</v>
+        <v>-0.02341959149856319</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04845978029281365</v>
+        <v>0.04845806388166271</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0538222109314816</v>
+        <v>0.05382063935999718</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.003936400606555524</v>
+        <v>-0.003936425478934132</v>
       </c>
       <c r="C66" t="n">
-        <v>0.05327432430447682</v>
+        <v>0.05325973465055614</v>
       </c>
       <c r="D66" t="n">
-        <v>0.05341955521935633</v>
+        <v>0.05340500707423277</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2133,13 +2133,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.006191666026977286</v>
+        <v>-0.006191692200992732</v>
       </c>
       <c r="C67" t="n">
-        <v>0.05231428765544217</v>
+        <v>0.05230002390393286</v>
       </c>
       <c r="D67" t="n">
-        <v>0.05267942122960326</v>
+        <v>0.05266525944741735</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.02626765553717975</v>
+        <v>-0.02626759073548913</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0452118226835433</v>
+        <v>0.04520979367989248</v>
       </c>
       <c r="D68" t="n">
-        <v>0.05228860906342882</v>
+        <v>0.05228682212207585</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2185,13 +2185,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.02123079895703982</v>
+        <v>-0.02123074052971986</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04573032526145589</v>
+        <v>0.04572730300720823</v>
       </c>
       <c r="D69" t="n">
-        <v>0.05041834460662898</v>
+        <v>0.05041557878030684</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2211,13 +2211,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.0488675535236529</v>
+        <v>-0.04886755877770546</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01065974683504671</v>
+        <v>0.01065870736328377</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05001667711848089</v>
+        <v>0.0500164607259312</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2237,13 +2237,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.0182815258683504</v>
+        <v>-0.01828156287699676</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04407572190423345</v>
+        <v>0.04408771548332033</v>
       </c>
       <c r="D71" t="n">
-        <v>0.04771669990112989</v>
+        <v>0.04772779271832911</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2263,13 +2263,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.02527790564506108</v>
+        <v>-0.0252778401725367</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03984183650568588</v>
+        <v>0.03983885915969775</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04718415464906005</v>
+        <v>0.04718160555698104</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.02481189478509388</v>
+        <v>-0.02481185970577762</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03837893311737897</v>
+        <v>0.03837549963174251</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04570090403979792</v>
+        <v>0.04569800164170267</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.02556065873179019</v>
+        <v>-0.02556062100343791</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03458535247738579</v>
+        <v>0.03458514739812378</v>
       </c>
       <c r="D74" t="n">
-        <v>0.04300574241642687</v>
+        <v>0.04300555506712289</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.02743052941169662</v>
+        <v>-0.02743049832177401</v>
       </c>
       <c r="C75" t="n">
-        <v>0.03016115451079688</v>
+        <v>0.0301616525120325</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0407692185996999</v>
+        <v>0.04076956610558227</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.02623218680542113</v>
+        <v>-0.0262321486638409</v>
       </c>
       <c r="C76" t="n">
-        <v>0.02982976801699863</v>
+        <v>0.02982947882602924</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03972332670538137</v>
+        <v>0.03972308435348867</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.02099101226581936</v>
+        <v>-0.02099097239531724</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0310386357687011</v>
+        <v>0.0310374743814601</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03747024828214873</v>
+        <v>0.03746926391164847</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2419,13 +2419,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.01002565191633665</v>
+        <v>-0.01002560251383371</v>
       </c>
       <c r="C78" t="n">
-        <v>0.03316587300736189</v>
+        <v>0.0331644846060125</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03464807106734805</v>
+        <v>0.03464672776681556</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2445,13 +2445,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.02809279834887814</v>
+        <v>-0.02809276655619012</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02022783784629535</v>
+        <v>0.02022872538279075</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03461749186476035</v>
+        <v>0.03461798468127452</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2471,13 +2471,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.00993464548545738</v>
+        <v>-0.009934598538644378</v>
       </c>
       <c r="C80" t="n">
-        <v>0.03193520959982549</v>
+        <v>0.03193471744887113</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03344480218369523</v>
+        <v>0.03344431830166776</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2497,13 +2497,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.02468255423601025</v>
+        <v>-0.02468251441729556</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02173699425655997</v>
+        <v>0.02173671894578956</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03288959414348722</v>
+        <v>0.03288938230627401</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2523,13 +2523,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.02685059325997389</v>
+        <v>-0.02685062880044636</v>
       </c>
       <c r="C82" t="n">
-        <v>0.003856773488346588</v>
+        <v>0.003860680953953742</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02712616928637304</v>
+        <v>0.02712676030062529</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2549,13 +2549,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.0265970798175343</v>
+        <v>-0.02659711435737781</v>
       </c>
       <c r="C83" t="n">
-        <v>0.002902495346688192</v>
+        <v>0.002905943172323644</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02675498334998243</v>
+        <v>0.02675539193994749</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2575,13 +2575,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.02607947237070085</v>
+        <v>-0.02607950613304048</v>
       </c>
       <c r="C84" t="n">
-        <v>0.003942413980366921</v>
+        <v>0.003945621302712761</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02637577500523429</v>
+        <v>0.0263762879800725</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2601,13 +2601,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.02567629511154591</v>
+        <v>-0.02567633071768968</v>
       </c>
       <c r="C85" t="n">
-        <v>0.003433732815913887</v>
+        <v>0.003438280674946231</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02590487698689728</v>
+        <v>0.02590551549620048</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2627,13 +2627,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.02531283871018187</v>
+        <v>-0.02531287408495902</v>
       </c>
       <c r="C86" t="n">
-        <v>0.00298809477854973</v>
+        <v>0.002991589438051722</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02548859576307173</v>
+        <v>0.02548904081770934</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2653,13 +2653,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.001162822185373724</v>
+        <v>-0.001162849534762228</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02455557551325306</v>
+        <v>0.02454688376010257</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0245830926496621</v>
+        <v>0.02457441192322786</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2679,13 +2679,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.02174305762392614</v>
+        <v>-0.02174302006826961</v>
       </c>
       <c r="C88" t="n">
-        <v>0.009838255678333557</v>
+        <v>0.009838187176502066</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02386528503139309</v>
+        <v>0.0238652225761476</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.01210452384102041</v>
+        <v>-0.01210451122008608</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0192462971877528</v>
+        <v>0.01925032349271469</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0227363025326708</v>
+        <v>0.02273970418566066</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2731,13 +2731,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.00995716521411795</v>
+        <v>-0.009957135123314833</v>
       </c>
       <c r="C90" t="n">
-        <v>0.02042498261535339</v>
+        <v>0.02042849284657524</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02272278710763116</v>
+        <v>0.02272592924055088</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.003864558172975594</v>
+        <v>-0.003864594093259496</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01816231868931025</v>
+        <v>0.0181549876314423</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01856891569382502</v>
+        <v>0.01856175270289633</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.01036635422179192</v>
+        <v>-0.01036632908842521</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01253644985963471</v>
+        <v>0.01253656106088969</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01626726390438166</v>
+        <v>0.01626733358614577</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2809,13 +2809,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.006955869753760753</v>
+        <v>-0.006955920788834873</v>
       </c>
       <c r="C93" t="n">
-        <v>0.008173403843213616</v>
+        <v>0.008145097924801432</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0107325977477749</v>
+        <v>0.01071109024446857</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2831,17 +2831,17 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>EP_X_sc</t>
+          <t>wEP_sc</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.00695586975376075</v>
+        <v>-0.006955920788834872</v>
       </c>
       <c r="C94" t="n">
-        <v>0.008173403843213613</v>
+        <v>0.00814509792480143</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01073259774777489</v>
+        <v>0.01071109024446857</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2850,24 +2850,24 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Horizontal movement of eephus pitches when considering secondary classification.</t>
+          <t>Weighted eephus pitch runs above average when considering secondary classification.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>wEP_per_c_sc</t>
+          <t>vEP_sc</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.006955869753760748</v>
+        <v>-0.006955920788834871</v>
       </c>
       <c r="C95" t="n">
-        <v>0.008173403843213613</v>
+        <v>0.008145097924801429</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01073259774777489</v>
+        <v>0.01071109024446856</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2876,24 +2876,24 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Weighted eephus pitch runs above average per 100 pitches when considering secondary classification.</t>
+          <t>Velocity of eephus pitches when considering secondary classification.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>wEP_sc</t>
+          <t>EP_X_sc</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.006955869753760751</v>
+        <v>-0.006955920788834871</v>
       </c>
       <c r="C96" t="n">
-        <v>0.008173403843213611</v>
+        <v>0.008145097924801429</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01073259774777489</v>
+        <v>0.01071109024446856</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Weighted eephus pitch runs above average when considering secondary classification.</t>
+          <t>Horizontal movement of eephus pitches when considering secondary classification.</t>
         </is>
       </c>
     </row>
@@ -2913,13 +2913,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.00695586975376075</v>
+        <v>-0.006955920788834871</v>
       </c>
       <c r="C97" t="n">
-        <v>0.008173403843213613</v>
+        <v>0.008145097924801429</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01073259774777489</v>
+        <v>0.01071109024446856</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2935,17 +2935,17 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>vEP_sc</t>
+          <t>wEP_per_c_sc</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.00695586975376075</v>
+        <v>-0.006955920788834868</v>
       </c>
       <c r="C98" t="n">
-        <v>0.008173403843213611</v>
+        <v>0.008145097924801427</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01073259774777489</v>
+        <v>0.01071109024446856</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Velocity of eephus pitches when considering secondary classification.</t>
+          <t>Weighted eephus pitch runs above average per 100 pitches when considering secondary classification.</t>
         </is>
       </c>
     </row>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.006702016680429082</v>
+        <v>-0.006702001687649745</v>
       </c>
       <c r="C99" t="n">
-        <v>0.007715212708049353</v>
+        <v>0.007717866040256619</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01021966411949022</v>
+        <v>0.01022165753860921</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2991,13 +2991,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.008713803145368954</v>
+        <v>-0.008713826437540196</v>
       </c>
       <c r="C100" t="n">
-        <v>0.002953043466676302</v>
+        <v>0.002952995742772333</v>
       </c>
       <c r="D100" t="n">
-        <v>0.009200588620969936</v>
+        <v>0.009200595363366763</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3017,13 +3017,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.007859631899769719</v>
+        <v>-0.007859638961622988</v>
       </c>
       <c r="C101" t="n">
-        <v>0.001965060923622641</v>
+        <v>0.001965724489938072</v>
       </c>
       <c r="D101" t="n">
-        <v>0.008101560222168716</v>
+        <v>0.008101728048842691</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.002743451766741987</v>
+        <v>-0.002743485004692697</v>
       </c>
       <c r="C102" t="n">
-        <v>0.006089397256615419</v>
+        <v>0.006111659660688492</v>
       </c>
       <c r="D102" t="n">
-        <v>0.006678868657588283</v>
+        <v>0.006699186053474008</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3069,13 +3069,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-4.595440574055496e-05</v>
+        <v>-4.598852445585767e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>0.006473735218662382</v>
+        <v>0.00649783049137008</v>
       </c>
       <c r="D103" t="n">
-        <v>0.006473898322398696</v>
+        <v>0.006497993231680098</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.004486840090848406</v>
+        <v>-0.004486884248023261</v>
       </c>
       <c r="C104" t="n">
-        <v>0.003032277223008359</v>
+        <v>0.003030375581678563</v>
       </c>
       <c r="D104" t="n">
-        <v>0.005415389104950799</v>
+        <v>0.005414361127704076</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3121,13 +3121,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.005317977014677778</v>
+        <v>-0.005317975904216539</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0009184007072468009</v>
+        <v>0.0009188576860725444</v>
       </c>
       <c r="D105" t="n">
-        <v>0.005396697081337121</v>
+        <v>0.005396773773754308</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.004285591616941559</v>
+        <v>-0.004285635755656877</v>
       </c>
       <c r="C106" t="n">
-        <v>0.002988460026760209</v>
+        <v>0.002986529091937638</v>
       </c>
       <c r="D106" t="n">
-        <v>0.005224671170393731</v>
+        <v>0.005223603147938647</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3173,13 +3173,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.004222990352919865</v>
+        <v>-0.004223034479600861</v>
       </c>
       <c r="C107" t="n">
-        <v>0.002974534413254112</v>
+        <v>0.002972594733729655</v>
       </c>
       <c r="D107" t="n">
-        <v>0.005165414068251183</v>
+        <v>0.00516433341941581</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3199,13 +3199,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.003871138672892057</v>
+        <v>-0.003871182746714687</v>
       </c>
       <c r="C108" t="n">
-        <v>0.002894507096564634</v>
+        <v>0.002892511279946203</v>
       </c>
       <c r="D108" t="n">
-        <v>0.004833620377814492</v>
+        <v>0.004832460797883154</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3225,13 +3225,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.002164030114103413</v>
+        <v>-0.002164029962983617</v>
       </c>
       <c r="C109" t="n">
-        <v>0.003814121788973159</v>
+        <v>0.003815829466987926</v>
       </c>
       <c r="D109" t="n">
-        <v>0.004385265254903772</v>
+        <v>0.004386750528788278</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3247,13 +3247,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.003538502280046198</v>
+        <v>-0.003538542873121141</v>
       </c>
       <c r="C110" t="n">
-        <v>0.002494449191392403</v>
+        <v>0.002492193132042866</v>
       </c>
       <c r="D110" t="n">
-        <v>0.00432935043099197</v>
+        <v>0.004328084134154285</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3273,13 +3273,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.0003083378123869888</v>
+        <v>-0.0003083442664067312</v>
       </c>
       <c r="C111" t="n">
-        <v>0.003769086175812211</v>
+        <v>0.003772622690082932</v>
       </c>
       <c r="D111" t="n">
-        <v>0.003781677247894949</v>
+        <v>0.003785202524086986</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3299,13 +3299,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.0004662663605710785</v>
+        <v>-0.0004662724239809699</v>
       </c>
       <c r="C112" t="n">
-        <v>0.003595012034155326</v>
+        <v>0.00359852491703145</v>
       </c>
       <c r="D112" t="n">
-        <v>0.00362512287305159</v>
+        <v>0.003628607384639635</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>

--- a/data/quadrant/quadrant2_SP_MAJORITY.xlsx
+++ b/data/quadrant/quadrant2_SP_MAJORITY.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1494018706176246</v>
+        <v>-0.1494018806060128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08011851523985433</v>
+        <v>0.08012021669437475</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1695284502031567</v>
+        <v>0.1695292631133836</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1445518661859773</v>
+        <v>-0.1445518901592717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08777906019056371</v>
+        <v>0.08778095046214057</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1691165439150981</v>
+        <v>0.1691175455494046</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1450511092862062</v>
+        <v>-0.1450511257692409</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08516797745526866</v>
+        <v>0.08516959388452813</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1682064466332372</v>
+        <v>0.1682072792996177</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1278195496592421</v>
+        <v>-0.1278194915847838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1089139796830309</v>
+        <v>0.1089141557523231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1679288308941831</v>
+        <v>0.167928900884374</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1526684319033696</v>
+        <v>-0.152668438823937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06978986283866373</v>
+        <v>0.06979112900565797</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1678638586917187</v>
+        <v>0.167864391402175</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1445680576025416</v>
+        <v>-0.1445680737660688</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08526812464814715</v>
+        <v>0.08527024468861163</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1678409257600296</v>
+        <v>0.1678420167350453</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1547790253568517</v>
+        <v>-0.1547790218252936</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06466378944902483</v>
+        <v>0.06466459853365439</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1677437103331292</v>
+        <v>0.1677440189715073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1539185833382765</v>
+        <v>-0.1539185858106718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06563846077914783</v>
+        <v>0.06563945381625531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1673300266847457</v>
+        <v>0.1673304184996065</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1527534248551253</v>
+        <v>-0.1527534312983838</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06710182422299094</v>
+        <v>0.06710314695334386</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1668420319314758</v>
+        <v>0.1668425698209906</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1495693981014481</v>
+        <v>-0.1495694117903245</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06932919817466904</v>
+        <v>0.06933111710562173</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1648561268742294</v>
+        <v>0.164856946297137</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1318775087272175</v>
+        <v>-0.1318775645043526</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0987694226380097</v>
+        <v>0.09877352304600845</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1647636979323513</v>
+        <v>0.1647662006435787</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1451028708844656</v>
+        <v>-0.1451028745999536</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0773008885686936</v>
+        <v>0.07730455632636386</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1644088516851312</v>
+        <v>0.164410579483152</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1459149721412367</v>
+        <v>-0.1459149834900658</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0754035162850515</v>
+        <v>0.07540349001137929</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1642463678841267</v>
+        <v>0.1642463659044009</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1332183781687874</v>
+        <v>-0.1332184388836609</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09565579518090188</v>
+        <v>0.09565980597040556</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1640035592101974</v>
+        <v>0.1640059478704822</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1346087651502491</v>
+        <v>-0.1346087950015886</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09184133771369209</v>
+        <v>0.09184579370531028</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1629550581243655</v>
+        <v>0.162957594217447</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1468464743510454</v>
+        <v>-0.1468464551698202</v>
       </c>
       <c r="C17" t="n">
-        <v>0.070099448902346</v>
+        <v>0.07010016653068885</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1627200656518576</v>
+        <v>0.162720357495835</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1551174332656457</v>
+        <v>-0.1551174165638962</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03757912327493512</v>
+        <v>0.03757840661919085</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1596045381843349</v>
+        <v>0.1596043532159901</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1277845670093272</v>
+        <v>-0.127784603432591</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09235535124098787</v>
+        <v>0.09236113656054083</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1576654891490445</v>
+        <v>0.1576689075917615</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1447333563314371</v>
+        <v>-0.1447333183190684</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03706167122585125</v>
+        <v>0.03706036760637673</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1494031857391797</v>
+        <v>0.149402825538102</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1323091479014361</v>
+        <v>-0.1323091923066551</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06022477476863206</v>
+        <v>0.06022793883081689</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1453710222648811</v>
+        <v>0.1453723735262242</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.123503372477038</v>
+        <v>-0.1235034486678955</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07639725570105199</v>
+        <v>0.0764003314915617</v>
       </c>
       <c r="D22" t="n">
-        <v>0.145222669345574</v>
+        <v>0.1452243522446701</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1302786694181415</v>
+        <v>-0.1302787054910311</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06278359314272045</v>
+        <v>0.06278277292706268</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1446178110513088</v>
+        <v>0.1446174874654858</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1314097486638645</v>
+        <v>-0.1314097358496228</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05630648460805238</v>
+        <v>0.05631051470492059</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1429648287265678</v>
+        <v>0.1429664042437968</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1402531944506208</v>
+        <v>-0.1402530825494025</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008985298819619878</v>
+        <v>0.008978007053561683</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1405407206060988</v>
+        <v>0.1405401429317023</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1390733470691086</v>
+        <v>-0.1390732331408416</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009625787248419554</v>
+        <v>0.00961840160544606</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1394060674617736</v>
+        <v>0.1394054440317541</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1390733464436733</v>
+        <v>-0.1390732325153638</v>
       </c>
       <c r="C27" t="n">
-        <v>0.009625783322572967</v>
+        <v>0.009618397678993734</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1394060665667571</v>
+        <v>0.1394054431368579</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.06761994617936205</v>
+        <v>-0.06761988849181286</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1089698085163819</v>
+        <v>0.1089679496549171</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1282453753138754</v>
+        <v>0.1282437654299099</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.06761994617936205</v>
+        <v>-0.06761988849181286</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1089698085163819</v>
+        <v>0.1089679496549171</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1282453753138754</v>
+        <v>0.1282437654299099</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0651696350527823</v>
+        <v>-0.06516957669444776</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1082074923257114</v>
+        <v>0.108205477840701</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1263168346988307</v>
+        <v>0.1263150789148625</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.1083407166467329</v>
+        <v>-0.1083407373517916</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05357219981223889</v>
+        <v>0.05357325836276117</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1208622831004367</v>
+        <v>0.1208627708665206</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.05007779180272485</v>
+        <v>-0.05007774141912596</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1060183901105323</v>
+        <v>0.1060161757403173</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117250519288684</v>
+        <v>0.1172484955308284</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1048883690430438</v>
+        <v>-0.1048884135605052</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04553325479724221</v>
+        <v>0.04553454778126893</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1143452983420846</v>
+        <v>0.1143458540607583</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.04512122468812662</v>
+        <v>-0.04512116917503505</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09560436852493059</v>
+        <v>0.0956021274330741</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1057171707832136</v>
+        <v>0.1057151203823364</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.08798264067566972</v>
+        <v>-0.08798264645408989</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04918078815188164</v>
+        <v>0.04918141081430865</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1007953123091757</v>
+        <v>0.1007956211685367</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,13 +1331,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.09521500347584623</v>
+        <v>-0.09521503524057688</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01520027308223379</v>
+        <v>0.0152005055913559</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09642066785020674</v>
+        <v>0.09642073587199561</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02807784833501982</v>
+        <v>-0.02807802587557769</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08635361087250577</v>
+        <v>0.08634260232543647</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09080369859121666</v>
+        <v>0.0907932845170725</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.02333791020491236</v>
+        <v>-0.02333809843482197</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08576980212026858</v>
+        <v>0.08575907978455798</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08888822761469924</v>
+        <v>0.08887793091677833</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.02831430923142451</v>
+        <v>-0.0283144897811621</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08412064442890209</v>
+        <v>0.08410929272288213</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08875800204143008</v>
+        <v>0.08874730110775766</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.03656876087162617</v>
+        <v>-0.03656873388966832</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07921676623310883</v>
+        <v>0.07921447853072948</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08725004483733627</v>
+        <v>0.08724795646425638</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1457,13 +1457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.03123045741486817</v>
+        <v>-0.03123063108930902</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08005250430257214</v>
+        <v>0.0800415666459201</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08592871996867651</v>
+        <v>0.08591859350204578</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.03397314444069153</v>
+        <v>-0.03397331202021244</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07868558058215282</v>
+        <v>0.07867537951114562</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08570644745139396</v>
+        <v>0.0856971485572624</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1509,13 +1509,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.02599900754235387</v>
+        <v>-0.0259990165775991</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08120653827624509</v>
+        <v>0.08121451712824078</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08526693527973568</v>
+        <v>0.08527453696957603</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.06595618628189026</v>
+        <v>-0.06595623511975253</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05321200111698952</v>
+        <v>0.05321665248965934</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08474512122668716</v>
+        <v>0.08474807993917764</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1561,13 +1561,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.03333544752990147</v>
+        <v>-0.03333562595198002</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07641472271877843</v>
+        <v>0.07640299947040709</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08336943030995597</v>
+        <v>0.08335875650275351</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.02783714324150349</v>
+        <v>-0.02783731818174221</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07696919243141759</v>
+        <v>0.07695789199940249</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08184841554601148</v>
+        <v>0.08183784836213165</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.02092523090798983</v>
+        <v>-0.02092525408290121</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07874880338186244</v>
+        <v>0.07875689104691373</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08148152749321727</v>
+        <v>0.08148934989193013</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.0264490955274056</v>
+        <v>-0.02644910329825829</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07616230500214345</v>
+        <v>0.07617006593484899</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08062413632069092</v>
+        <v>0.08063147034378809</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1665,13 +1665,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.03079622636202616</v>
+        <v>-0.03079623217184638</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07449718039405846</v>
+        <v>0.07450450541482785</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08061164583858862</v>
+        <v>0.08061841751789958</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.02293403214247278</v>
+        <v>-0.02293406185108264</v>
       </c>
       <c r="C50" t="n">
-        <v>0.07614001318305039</v>
+        <v>0.07614709895318611</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07951900048307362</v>
+        <v>0.0795257937525656</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1717,13 +1717,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.02772841509289103</v>
+        <v>-0.0277286050032375</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07422386307768507</v>
+        <v>0.07421161227411827</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07923412682511626</v>
+        <v>0.07922271727067703</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.03143029093484106</v>
+        <v>-0.03143029719407742</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06983637140067765</v>
+        <v>0.06984362735191979</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07658317020509231</v>
+        <v>0.07658978955044771</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1769,13 +1769,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.06273522223260534</v>
+        <v>-0.06273517777738627</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0353271818063108</v>
+        <v>0.03532429484903898</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07199804082716778</v>
+        <v>0.07199658559502736</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.02290318957562245</v>
+        <v>-0.02290320133808172</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06165683584726079</v>
+        <v>0.06166439092675529</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06577325823944687</v>
+        <v>0.06578034463196744</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1821,13 +1821,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.02278139284450778</v>
+        <v>-0.02278140541937917</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06069750738233463</v>
+        <v>0.06070547841611419</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06483193088567051</v>
+        <v>0.06483939807409862</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1847,13 +1847,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.01914657293779147</v>
+        <v>-0.01914659303932083</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06193769022176027</v>
+        <v>0.06194310347982016</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06482953590200154</v>
+        <v>0.06483471364728217</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.05553115194725442</v>
+        <v>-0.05553110209363286</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02741248889085292</v>
+        <v>0.02740863037502132</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06192861522575968</v>
+        <v>0.06192686265884957</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1899,13 +1899,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.05353548610088446</v>
+        <v>-0.05353550534979052</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02387349688094076</v>
+        <v>0.02387458621020332</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05861733638935056</v>
+        <v>0.05861779763660419</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1925,13 +1925,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.02497446188900945</v>
+        <v>-0.02497434887101921</v>
       </c>
       <c r="C59" t="n">
-        <v>0.05276889490398742</v>
+        <v>0.05277358539473789</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05838047632585448</v>
+        <v>0.05838466765296409</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.00963443748182264</v>
+        <v>-0.009634651824860171</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05727794325979691</v>
+        <v>0.05726525491204034</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05808257199594095</v>
+        <v>0.05807009502254359</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.02548448147682133</v>
+        <v>-0.02548436148406627</v>
       </c>
       <c r="C61" t="n">
-        <v>0.05151357402881101</v>
+        <v>0.05151847226815427</v>
       </c>
       <c r="D61" t="n">
-        <v>0.05747266398353431</v>
+        <v>0.05747700118390956</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2003,13 +2003,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.02570532605400266</v>
+        <v>-0.02570521185979429</v>
       </c>
       <c r="C62" t="n">
-        <v>0.05003055125830005</v>
+        <v>0.05003520143911673</v>
       </c>
       <c r="D62" t="n">
-        <v>0.05624784304088449</v>
+        <v>0.05625192707641133</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2029,13 +2029,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.02370046230321351</v>
+        <v>-0.02370035076770703</v>
       </c>
       <c r="C63" t="n">
-        <v>0.04881634244594</v>
+        <v>0.04882119101298558</v>
       </c>
       <c r="D63" t="n">
-        <v>0.05426552499686452</v>
+        <v>0.05426983801743631</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.02665813877374199</v>
+        <v>-0.02665802720105863</v>
       </c>
       <c r="C64" t="n">
-        <v>0.04690586381639447</v>
+        <v>0.04691014880607807</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05395198257008013</v>
+        <v>0.05395565285733062</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.02341959149856319</v>
+        <v>-0.02341948758579993</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04845806388166271</v>
+        <v>0.04846199857186685</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05382063935999718</v>
+        <v>0.05382413681947033</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.003936425478934132</v>
+        <v>-0.003936424826047514</v>
       </c>
       <c r="C66" t="n">
-        <v>0.05325973465055614</v>
+        <v>0.05326629524962412</v>
       </c>
       <c r="D66" t="n">
-        <v>0.05340500707423277</v>
+        <v>0.05341154978121541</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2133,13 +2133,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.006191692200992732</v>
+        <v>-0.006191697644544307</v>
       </c>
       <c r="C67" t="n">
-        <v>0.05230002390393286</v>
+        <v>0.05230602247502941</v>
       </c>
       <c r="D67" t="n">
-        <v>0.05266525944741735</v>
+        <v>0.05267121706282984</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.02626759073548913</v>
+        <v>-0.02626746693953454</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04520979367989248</v>
+        <v>0.0452141857616738</v>
       </c>
       <c r="D68" t="n">
-        <v>0.05228682212207585</v>
+        <v>0.05229055759418411</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2185,13 +2185,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.02123074052971986</v>
+        <v>-0.02123063766965085</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04572730300720823</v>
+        <v>0.04573229490653073</v>
       </c>
       <c r="D69" t="n">
-        <v>0.05041557878030684</v>
+        <v>0.05042006320184351</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2211,13 +2211,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.04886755877770546</v>
+        <v>-0.04886758300438757</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01065870736328377</v>
+        <v>0.0106592447639589</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0500164607259312</v>
+        <v>0.05001659892104514</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2237,13 +2237,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.01828156287699676</v>
+        <v>-0.01828176153036493</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04408771548332033</v>
+        <v>0.04407572133103906</v>
       </c>
       <c r="D71" t="n">
-        <v>0.04772779271832911</v>
+        <v>0.0477167896605015</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2263,13 +2263,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.0252778401725367</v>
+        <v>-0.0252777302689338</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03983885915969775</v>
+        <v>0.03984332238892675</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04718160555698104</v>
+        <v>0.0471853153696881</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.02481185970577762</v>
+        <v>-0.02481203978506188</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03837549963174251</v>
+        <v>0.0383799558760898</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04569800164170267</v>
+        <v>0.04570184166252049</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.02556062100343791</v>
+        <v>-0.02556078573610044</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03458514739812378</v>
+        <v>0.03458724628147814</v>
       </c>
       <c r="D74" t="n">
-        <v>0.04300555506712289</v>
+        <v>0.04300734091736502</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.02743049832177401</v>
+        <v>-0.02743065462845647</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0301616525120325</v>
+        <v>0.03016328272923858</v>
       </c>
       <c r="D75" t="n">
-        <v>0.04076956610558227</v>
+        <v>0.04077087733112501</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.0262321486638409</v>
+        <v>-0.02623231862905365</v>
       </c>
       <c r="C76" t="n">
-        <v>0.02982947882602924</v>
+        <v>0.02983173390428542</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03972308435348867</v>
+        <v>0.03972489003625167</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.02099097239531724</v>
+        <v>-0.02099114911953862</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0310374743814601</v>
+        <v>0.03104003309993147</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03746926391164847</v>
+        <v>0.03747148243936378</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2419,13 +2419,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.01002560251383371</v>
+        <v>-0.01002550851245062</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0331644846060125</v>
+        <v>0.03316685114250283</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03464672776681556</v>
+        <v>0.03464896586685036</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2445,13 +2445,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.02809276655619012</v>
+        <v>-0.028092928323163</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02022872538279075</v>
+        <v>0.02023017387963445</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03461798468127452</v>
+        <v>0.03461896239014997</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2471,13 +2471,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.009934598538644378</v>
+        <v>-0.00993450539041682</v>
       </c>
       <c r="C80" t="n">
-        <v>0.03193471744887113</v>
+        <v>0.03193669814197475</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03344431830166776</v>
+        <v>0.03344618192804426</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2497,13 +2497,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.02468251441729556</v>
+        <v>-0.0246826860871543</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02173671894578956</v>
+        <v>0.0217389216190105</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03288938230627401</v>
+        <v>0.03289096693067085</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2523,13 +2523,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.02685062880044636</v>
+        <v>-0.02685066332288327</v>
       </c>
       <c r="C82" t="n">
-        <v>0.003860680953953742</v>
+        <v>0.003859420927109233</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02712676030062529</v>
+        <v>0.02712661517350511</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2549,13 +2549,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.02659711435737781</v>
+        <v>-0.0265971542261065</v>
       </c>
       <c r="C83" t="n">
-        <v>0.002905943172323644</v>
+        <v>0.002904417187494496</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02675539193994749</v>
+        <v>0.02675526587657668</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2575,13 +2575,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.02607950613304048</v>
+        <v>-0.0260795442483226</v>
       </c>
       <c r="C84" t="n">
-        <v>0.003945621302712761</v>
+        <v>0.003944389390381637</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0263762879800725</v>
+        <v>0.02637614141346629</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2601,13 +2601,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.02567633071768968</v>
+        <v>-0.02567636165848374</v>
       </c>
       <c r="C85" t="n">
-        <v>0.003438280674946231</v>
+        <v>0.00343688913803557</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02590551549620048</v>
+        <v>0.0259053615100118</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2627,13 +2627,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.02531287408495902</v>
+        <v>-0.02531290971222467</v>
       </c>
       <c r="C86" t="n">
-        <v>0.002991589438051722</v>
+        <v>0.0029902118992214</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02548904081770934</v>
+        <v>0.02548891455714589</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2653,13 +2653,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.001162849534762228</v>
+        <v>-0.00116278622424911</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02454688376010257</v>
+        <v>0.02455199011210389</v>
       </c>
       <c r="D87" t="n">
-        <v>0.02457441192322786</v>
+        <v>0.02457950956118024</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2679,13 +2679,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.02174302006826961</v>
+        <v>-0.02174320168904229</v>
       </c>
       <c r="C88" t="n">
-        <v>0.009838187176502066</v>
+        <v>0.009839804943978535</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0238652225761476</v>
+        <v>0.0238660549950325</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.01210451122008608</v>
+        <v>-0.01210445943067403</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01925032349271469</v>
+        <v>0.01924766532609645</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02273970418566066</v>
+        <v>0.022737426385021</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2731,13 +2731,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.009957135123314833</v>
+        <v>-0.009957212051644595</v>
       </c>
       <c r="C90" t="n">
-        <v>0.02042849284657524</v>
+        <v>0.02042809499452508</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02272592924055088</v>
+        <v>0.02272560531529924</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.003864594093259496</v>
+        <v>-0.003864527535380548</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0181549876314423</v>
+        <v>0.01815873016014768</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01856175270289633</v>
+        <v>0.01856539937897302</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.01036632908842521</v>
+        <v>-0.01036633098101617</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01253656106088969</v>
+        <v>0.01253742051011451</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01626733358614577</v>
+        <v>0.0162679971433307</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2809,13 +2809,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.006955920788834873</v>
+        <v>-0.006955925630257541</v>
       </c>
       <c r="C93" t="n">
-        <v>0.008145097924801432</v>
+        <v>0.008158409020065196</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01071109024446857</v>
+        <v>0.01072121910569665</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2831,17 +2831,17 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>wEP_sc</t>
+          <t>vEP_sc</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.006955920788834872</v>
+        <v>-0.006955925630257538</v>
       </c>
       <c r="C94" t="n">
-        <v>0.00814509792480143</v>
+        <v>0.008158409020065193</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01071109024446857</v>
+        <v>0.01072121910569665</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2850,24 +2850,24 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Weighted eephus pitch runs above average when considering secondary classification.</t>
+          <t>Velocity of eephus pitches when considering secondary classification.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>vEP_sc</t>
+          <t>EP_X_sc</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.006955920788834871</v>
+        <v>-0.006955925630257538</v>
       </c>
       <c r="C95" t="n">
-        <v>0.008145097924801429</v>
+        <v>0.008158409020065193</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01071109024446856</v>
+        <v>0.01072121910569665</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2876,24 +2876,24 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Velocity of eephus pitches when considering secondary classification.</t>
+          <t>Horizontal movement of eephus pitches when considering secondary classification.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>EP_X_sc</t>
+          <t>wEP_sc</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.006955920788834871</v>
+        <v>-0.006955925630257539</v>
       </c>
       <c r="C96" t="n">
-        <v>0.008145097924801429</v>
+        <v>0.008158409020065193</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01071109024446856</v>
+        <v>0.01072121910569665</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Horizontal movement of eephus pitches when considering secondary classification.</t>
+          <t>Weighted eephus pitch runs above average when considering secondary classification.</t>
         </is>
       </c>
     </row>
@@ -2913,13 +2913,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.006955920788834871</v>
+        <v>-0.006955925630257538</v>
       </c>
       <c r="C97" t="n">
-        <v>0.008145097924801429</v>
+        <v>0.008158409020065193</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01071109024446856</v>
+        <v>0.01072121910569665</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2939,13 +2939,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.006955920788834868</v>
+        <v>-0.006955925630257536</v>
       </c>
       <c r="C98" t="n">
-        <v>0.008145097924801427</v>
+        <v>0.008158409020065193</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01071109024446856</v>
+        <v>0.01072121910569665</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.006702001687649745</v>
+        <v>-0.006701924642852639</v>
       </c>
       <c r="C99" t="n">
-        <v>0.007717866040256619</v>
+        <v>0.007717451063749786</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01022165753860921</v>
+        <v>0.01022129369697634</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2991,13 +2991,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.008713826437540196</v>
+        <v>-0.008713419366108753</v>
       </c>
       <c r="C100" t="n">
-        <v>0.002952995742772333</v>
+        <v>0.002960160514949643</v>
       </c>
       <c r="D100" t="n">
-        <v>0.009200595363366763</v>
+        <v>0.009202512011616501</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3017,13 +3017,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.007859638961622988</v>
+        <v>-0.007859432276141904</v>
       </c>
       <c r="C101" t="n">
-        <v>0.001965724489938072</v>
+        <v>0.001969089641576966</v>
       </c>
       <c r="D101" t="n">
-        <v>0.008101728048842691</v>
+        <v>0.008102344705073145</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.002743485004692697</v>
+        <v>-0.002743351738070742</v>
       </c>
       <c r="C102" t="n">
-        <v>0.006111659660688492</v>
+        <v>0.006110311391915218</v>
       </c>
       <c r="D102" t="n">
-        <v>0.006699186053474008</v>
+        <v>0.006697901467246637</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3069,13 +3069,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-4.598852445585767e-05</v>
+        <v>-4.584231017378938e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>0.00649783049137008</v>
+        <v>0.00649678654722808</v>
       </c>
       <c r="D103" t="n">
-        <v>0.006497993231680098</v>
+        <v>0.006496948280357927</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.004486884248023261</v>
+        <v>-0.004486289493411755</v>
       </c>
       <c r="C104" t="n">
-        <v>0.003030375581678563</v>
+        <v>0.003041732759774382</v>
       </c>
       <c r="D104" t="n">
-        <v>0.005414361127704076</v>
+        <v>0.005420233537457715</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3121,13 +3121,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.005317975904216539</v>
+        <v>-0.00531788615541627</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0009188576860725444</v>
+        <v>0.0009204429381405848</v>
       </c>
       <c r="D105" t="n">
-        <v>0.005396773773754308</v>
+        <v>0.005396955471776741</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.004285635755656877</v>
+        <v>-0.004285044177116251</v>
       </c>
       <c r="C106" t="n">
-        <v>0.002986529091937638</v>
+        <v>0.002997844810630214</v>
       </c>
       <c r="D106" t="n">
-        <v>0.005223603147938647</v>
+        <v>0.005229596266296319</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3173,13 +3173,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.004223034479600861</v>
+        <v>-0.00422244396438555</v>
       </c>
       <c r="C107" t="n">
-        <v>0.002972594733729655</v>
+        <v>0.002983896055248727</v>
       </c>
       <c r="D107" t="n">
-        <v>0.00516433341941581</v>
+        <v>0.005170364464997112</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3199,13 +3199,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.003871182746714687</v>
+        <v>-0.003870597658427673</v>
       </c>
       <c r="C108" t="n">
-        <v>0.002892511279946203</v>
+        <v>0.00290374820091409</v>
       </c>
       <c r="D108" t="n">
-        <v>0.004832460797883154</v>
+        <v>0.004838727089611233</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3225,13 +3225,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.002164029962983617</v>
+        <v>-0.0021640488436557</v>
       </c>
       <c r="C109" t="n">
-        <v>0.003815829466987926</v>
+        <v>0.003813812511175484</v>
       </c>
       <c r="D109" t="n">
-        <v>0.004386750528788278</v>
+        <v>0.004385005503773766</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3247,13 +3247,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.003538542873121141</v>
+        <v>-0.003537979219221334</v>
       </c>
       <c r="C110" t="n">
-        <v>0.002492193132042866</v>
+        <v>0.002503415651047814</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004328084134154285</v>
+        <v>0.00433409585467986</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3273,13 +3273,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.0003083442664067312</v>
+        <v>-0.000308360731685986</v>
       </c>
       <c r="C111" t="n">
-        <v>0.003772622690082932</v>
+        <v>0.003771499635160261</v>
       </c>
       <c r="D111" t="n">
-        <v>0.003785202524086986</v>
+        <v>0.003784084544359428</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3299,13 +3299,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.0004662724239809699</v>
+        <v>-0.0004662877901018596</v>
       </c>
       <c r="C112" t="n">
-        <v>0.00359852491703145</v>
+        <v>0.00359744653731944</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003628607384639635</v>
+        <v>0.003627539922877446</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
